--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,25 +461,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Januari</t>
+          <t>Mei</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Form Pengaduan (2),</t>
+          <t>Whatsapp (1),</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Februari</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -487,167 +485,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Instagram (1),</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Maret</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Langsung (1),</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Form Pengaduan (1),</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mei</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Form Pengaduan (1),</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Juli</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tiktok (3),</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Agustus</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>BPJS (1), Tiktok (1), Whatsapp (1),</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Website (1),</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Langsung (1),</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Desember</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Form Pengaduan (1), Whatsapp (1),</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>16</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>BPJS : 1  Form Pengaduan : 5  Instagram : 1  Langsung : 2  Tiktok : 4  Website : 1  Whatsapp : 2</t>
+          <t>Whatsapp : 1</t>
         </is>
       </c>
     </row>
